--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-09-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-09-26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
   <si>
     <t>League</t>
   </si>
@@ -139,12 +139,6 @@
     <t>Odd_CS_Goleada_A_Lay</t>
   </si>
   <si>
-    <t>Belgian First Division A</t>
-  </si>
-  <si>
-    <t>Colombian Primera B</t>
-  </si>
-  <si>
     <t>Argentinian Primera Division</t>
   </si>
   <si>
@@ -160,15 +154,6 @@
     <t>2025-09-26</t>
   </si>
   <si>
-    <t>15:45:00</t>
-  </si>
-  <si>
-    <t>17:30:00</t>
-  </si>
-  <si>
-    <t>18:00:00</t>
-  </si>
-  <si>
     <t>19:00:00</t>
   </si>
   <si>
@@ -184,15 +169,6 @@
     <t>22:10:00</t>
   </si>
   <si>
-    <t>Oud-Heverlee Leuven</t>
-  </si>
-  <si>
-    <t>Boyaca Patriotas</t>
-  </si>
-  <si>
-    <t>Quindio</t>
-  </si>
-  <si>
     <t>Banfield</t>
   </si>
   <si>
@@ -212,15 +188,6 @@
   </si>
   <si>
     <t>Fortaleza FC</t>
-  </si>
-  <si>
-    <t>Anderlecht</t>
-  </si>
-  <si>
-    <t>Real Santander</t>
-  </si>
-  <si>
-    <t>Bogota</t>
   </si>
   <si>
     <t>Union Santa Fe</t>
@@ -599,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO11"/>
+  <dimension ref="A1:AO8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -735,100 +702,100 @@
         <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F2">
-        <v>24</v>
+        <v>3.85</v>
       </c>
       <c r="G2">
-        <v>1000</v>
+        <v>3.95</v>
       </c>
       <c r="H2">
-        <v>29</v>
+        <v>6.2</v>
       </c>
       <c r="I2">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="J2">
-        <v>1.03</v>
+        <v>1.68</v>
       </c>
       <c r="K2">
-        <v>1.05</v>
+        <v>1.71</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="P2">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="Q2">
-        <v>1.09</v>
+        <v>36</v>
       </c>
       <c r="R2">
         <v>1.01</v>
       </c>
       <c r="S2">
-        <v>1.09</v>
+        <v>200</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="V2">
-        <v>1.03</v>
+        <v>1.18</v>
       </c>
       <c r="W2">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="X2">
-        <v>1000</v>
+        <v>1.86</v>
       </c>
       <c r="Y2">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="Z2">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AA2">
         <v>1000</v>
       </c>
       <c r="AB2">
-        <v>1000</v>
+        <v>5.3</v>
       </c>
       <c r="AC2">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AD2">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AE2">
         <v>1000</v>
       </c>
       <c r="AF2">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AG2">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AH2">
         <v>1000</v>
@@ -837,7 +804,7 @@
         <v>1000</v>
       </c>
       <c r="AJ2">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AK2">
         <v>1000</v>
@@ -857,124 +824,124 @@
     </row>
     <row r="3" spans="1:41">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F3">
-        <v>1.41</v>
+        <v>3.25</v>
       </c>
       <c r="G3">
-        <v>1.46</v>
+        <v>3.4</v>
       </c>
       <c r="H3">
-        <v>11.5</v>
+        <v>7.2</v>
       </c>
       <c r="I3">
-        <v>18</v>
+        <v>8.4</v>
       </c>
       <c r="J3">
-        <v>4.2</v>
+        <v>1.74</v>
       </c>
       <c r="K3">
-        <v>4.8</v>
+        <v>1.75</v>
       </c>
       <c r="L3">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>2.78</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.51</v>
+        <v>1.91</v>
       </c>
       <c r="Q3">
-        <v>2.78</v>
+        <v>2.06</v>
       </c>
       <c r="R3">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="S3">
-        <v>6</v>
+        <v>7.2</v>
       </c>
       <c r="T3">
-        <v>2.94</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1.06</v>
+        <v>1.15</v>
       </c>
       <c r="W3">
-        <v>3.2</v>
+        <v>1.42</v>
       </c>
       <c r="X3">
+        <v>1000</v>
+      </c>
+      <c r="Y3">
+        <v>1000</v>
+      </c>
+      <c r="Z3">
+        <v>1000</v>
+      </c>
+      <c r="AA3">
+        <v>1000</v>
+      </c>
+      <c r="AB3">
+        <v>1000</v>
+      </c>
+      <c r="AC3">
+        <v>1.92</v>
+      </c>
+      <c r="AD3">
         <v>9</v>
       </c>
-      <c r="Y3">
-        <v>36</v>
-      </c>
-      <c r="Z3">
-        <v>170</v>
-      </c>
-      <c r="AA3">
-        <v>1000</v>
-      </c>
-      <c r="AB3">
-        <v>5.6</v>
-      </c>
-      <c r="AC3">
-        <v>12.5</v>
-      </c>
-      <c r="AD3">
-        <v>85</v>
-      </c>
       <c r="AE3">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AF3">
-        <v>5.9</v>
+        <v>1000</v>
       </c>
       <c r="AG3">
-        <v>15</v>
+        <v>4.3</v>
       </c>
       <c r="AH3">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="AI3">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AJ3">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AK3">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AL3">
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="AM3">
         <v>1000</v>
       </c>
       <c r="AN3">
-        <v>15.5</v>
+        <v>290</v>
       </c>
       <c r="AO3">
         <v>1000</v>
@@ -985,124 +952,124 @@
         <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F4">
-        <v>1.65</v>
+        <v>1.02</v>
       </c>
       <c r="G4">
-        <v>1.72</v>
+        <v>1.03</v>
       </c>
       <c r="H4">
+        <v>90</v>
+      </c>
+      <c r="I4">
+        <v>530</v>
+      </c>
+      <c r="J4">
+        <v>38</v>
+      </c>
+      <c r="K4">
+        <v>46</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>3.25</v>
+      </c>
+      <c r="Q4">
+        <v>1.43</v>
+      </c>
+      <c r="R4">
+        <v>1.44</v>
+      </c>
+      <c r="S4">
+        <v>3.2</v>
+      </c>
+      <c r="T4">
+        <v>3.15</v>
+      </c>
+      <c r="U4">
+        <v>1.43</v>
+      </c>
+      <c r="V4">
+        <v>1.01</v>
+      </c>
+      <c r="W4">
+        <v>34</v>
+      </c>
+      <c r="X4">
+        <v>1000</v>
+      </c>
+      <c r="Y4">
+        <v>1000</v>
+      </c>
+      <c r="Z4">
+        <v>1000</v>
+      </c>
+      <c r="AA4">
+        <v>1000</v>
+      </c>
+      <c r="AB4">
+        <v>1000</v>
+      </c>
+      <c r="AC4">
+        <v>1000</v>
+      </c>
+      <c r="AD4">
+        <v>1000</v>
+      </c>
+      <c r="AE4">
+        <v>1000</v>
+      </c>
+      <c r="AF4">
+        <v>3.45</v>
+      </c>
+      <c r="AG4">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH4">
+        <v>870</v>
+      </c>
+      <c r="AI4">
+        <v>1000</v>
+      </c>
+      <c r="AJ4">
+        <v>4.1</v>
+      </c>
+      <c r="AK4">
+        <v>12.5</v>
+      </c>
+      <c r="AL4">
+        <v>160</v>
+      </c>
+      <c r="AM4">
+        <v>1000</v>
+      </c>
+      <c r="AN4">
         <v>5.6</v>
       </c>
-      <c r="I4">
-        <v>6.4</v>
-      </c>
-      <c r="J4">
-        <v>3.95</v>
-      </c>
-      <c r="K4">
-        <v>4.4</v>
-      </c>
-      <c r="L4">
-        <v>1.4</v>
-      </c>
-      <c r="M4">
-        <v>1.06</v>
-      </c>
-      <c r="N4">
-        <v>4</v>
-      </c>
-      <c r="O4">
-        <v>1.31</v>
-      </c>
-      <c r="P4">
-        <v>2.04</v>
-      </c>
-      <c r="Q4">
-        <v>1.91</v>
-      </c>
-      <c r="R4">
-        <v>1.41</v>
-      </c>
-      <c r="S4">
-        <v>3.35</v>
-      </c>
-      <c r="T4">
-        <v>1.91</v>
-      </c>
-      <c r="U4">
-        <v>1.97</v>
-      </c>
-      <c r="V4">
-        <v>1.18</v>
-      </c>
-      <c r="W4">
-        <v>2.38</v>
-      </c>
-      <c r="X4">
-        <v>16</v>
-      </c>
-      <c r="Y4">
-        <v>22</v>
-      </c>
-      <c r="Z4">
-        <v>60</v>
-      </c>
-      <c r="AA4">
-        <v>1000</v>
-      </c>
-      <c r="AB4">
-        <v>8.6</v>
-      </c>
-      <c r="AC4">
-        <v>9.4</v>
-      </c>
-      <c r="AD4">
-        <v>27</v>
-      </c>
-      <c r="AE4">
-        <v>250</v>
-      </c>
-      <c r="AF4">
-        <v>10.5</v>
-      </c>
-      <c r="AG4">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AH4">
-        <v>27</v>
-      </c>
-      <c r="AI4">
-        <v>120</v>
-      </c>
-      <c r="AJ4">
-        <v>17.5</v>
-      </c>
-      <c r="AK4">
-        <v>18</v>
-      </c>
-      <c r="AL4">
-        <v>34</v>
-      </c>
-      <c r="AM4">
-        <v>1000</v>
-      </c>
-      <c r="AN4">
-        <v>10.5</v>
-      </c>
       <c r="AO4">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:41">
@@ -1110,174 +1077,174 @@
         <v>43</v>
       </c>
       <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
         <v>47</v>
       </c>
-      <c r="C5" t="s">
-        <v>51</v>
-      </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F5">
-        <v>3.25</v>
+        <v>1.21</v>
       </c>
       <c r="G5">
-        <v>3.4</v>
+        <v>1.22</v>
       </c>
       <c r="H5">
-        <v>2.76</v>
+        <v>27</v>
       </c>
       <c r="I5">
-        <v>2.84</v>
+        <v>32</v>
       </c>
       <c r="J5">
-        <v>2.92</v>
+        <v>7</v>
       </c>
       <c r="K5">
-        <v>2.96</v>
+        <v>7.4</v>
       </c>
       <c r="L5">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>2.44</v>
+        <v>5.4</v>
       </c>
       <c r="O5">
-        <v>1.66</v>
+        <v>1.22</v>
       </c>
       <c r="P5">
-        <v>1.46</v>
+        <v>2</v>
       </c>
       <c r="Q5">
-        <v>3.05</v>
+        <v>1.96</v>
       </c>
       <c r="R5">
-        <v>1.16</v>
+        <v>1.31</v>
       </c>
       <c r="S5">
-        <v>6.8</v>
+        <v>4.1</v>
       </c>
       <c r="T5">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="U5">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="V5">
-        <v>1.54</v>
+        <v>1.03</v>
       </c>
       <c r="W5">
-        <v>1.42</v>
+        <v>5.5</v>
       </c>
       <c r="X5">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="Y5">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="Z5">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AA5">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AB5">
+        <v>5.4</v>
+      </c>
+      <c r="AC5">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD5">
+        <v>880</v>
+      </c>
+      <c r="AE5">
+        <v>1000</v>
+      </c>
+      <c r="AF5">
+        <v>5</v>
+      </c>
+      <c r="AG5">
+        <v>8.4</v>
+      </c>
+      <c r="AH5">
+        <v>34</v>
+      </c>
+      <c r="AI5">
+        <v>1000</v>
+      </c>
+      <c r="AJ5">
         <v>8.6</v>
       </c>
-      <c r="AC5">
-        <v>6.8</v>
-      </c>
-      <c r="AD5">
-        <v>14</v>
-      </c>
-      <c r="AE5">
-        <v>46</v>
-      </c>
-      <c r="AF5">
-        <v>19.5</v>
-      </c>
-      <c r="AG5">
+      <c r="AK5">
         <v>16</v>
       </c>
-      <c r="AH5">
-        <v>32</v>
-      </c>
-      <c r="AI5">
-        <v>85</v>
-      </c>
-      <c r="AJ5">
+      <c r="AL5">
         <v>65</v>
       </c>
-      <c r="AK5">
-        <v>60</v>
-      </c>
-      <c r="AL5">
-        <v>240</v>
-      </c>
       <c r="AM5">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AN5">
-        <v>95</v>
+        <v>12.5</v>
       </c>
       <c r="AO5">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:41">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F6">
-        <v>1.94</v>
+        <v>2.46</v>
       </c>
       <c r="G6">
-        <v>1.99</v>
+        <v>2.52</v>
       </c>
       <c r="H6">
-        <v>5.3</v>
+        <v>3.7</v>
       </c>
       <c r="I6">
-        <v>5.6</v>
+        <v>3.85</v>
       </c>
       <c r="J6">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="K6">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="L6">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="M6">
         <v>1.16</v>
       </c>
       <c r="N6">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="O6">
         <v>1.68</v>
       </c>
       <c r="P6">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -1289,70 +1256,70 @@
         <v>7</v>
       </c>
       <c r="T6">
-        <v>2.52</v>
+        <v>2.4</v>
       </c>
       <c r="U6">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="V6">
-        <v>1.21</v>
+        <v>1.35</v>
       </c>
       <c r="W6">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="X6">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="Y6">
-        <v>12.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z6">
+        <v>23</v>
+      </c>
+      <c r="AA6">
+        <v>90</v>
+      </c>
+      <c r="AB6">
+        <v>6.8</v>
+      </c>
+      <c r="AC6">
+        <v>7</v>
+      </c>
+      <c r="AD6">
+        <v>18</v>
+      </c>
+      <c r="AE6">
+        <v>75</v>
+      </c>
+      <c r="AF6">
+        <v>13</v>
+      </c>
+      <c r="AG6">
+        <v>13.5</v>
+      </c>
+      <c r="AH6">
+        <v>29</v>
+      </c>
+      <c r="AI6">
+        <v>120</v>
+      </c>
+      <c r="AJ6">
         <v>40</v>
       </c>
-      <c r="AA6">
-        <v>180</v>
-      </c>
-      <c r="AB6">
-        <v>5.6</v>
-      </c>
-      <c r="AC6">
-        <v>7.8</v>
-      </c>
-      <c r="AD6">
-        <v>25</v>
-      </c>
-      <c r="AE6">
-        <v>310</v>
-      </c>
-      <c r="AF6">
-        <v>9.6</v>
-      </c>
-      <c r="AG6">
-        <v>12</v>
-      </c>
-      <c r="AH6">
-        <v>38</v>
-      </c>
-      <c r="AI6">
-        <v>170</v>
-      </c>
-      <c r="AJ6">
-        <v>24</v>
-      </c>
       <c r="AK6">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AL6">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AM6">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="AN6">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="AO6">
-        <v>260</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:41">
@@ -1360,624 +1327,249 @@
         <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F7">
-        <v>1.55</v>
+        <v>2.16</v>
       </c>
       <c r="G7">
-        <v>1.59</v>
+        <v>2.26</v>
       </c>
       <c r="H7">
+        <v>4.8</v>
+      </c>
+      <c r="I7">
+        <v>5.4</v>
+      </c>
+      <c r="J7">
+        <v>2.78</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1.78</v>
+      </c>
+      <c r="M7">
+        <v>1.19</v>
+      </c>
+      <c r="N7">
+        <v>2.08</v>
+      </c>
+      <c r="O7">
+        <v>1.83</v>
+      </c>
+      <c r="P7">
+        <v>1.35</v>
+      </c>
+      <c r="Q7">
+        <v>3.55</v>
+      </c>
+      <c r="R7">
+        <v>1.11</v>
+      </c>
+      <c r="S7">
+        <v>8.6</v>
+      </c>
+      <c r="T7">
+        <v>2.76</v>
+      </c>
+      <c r="U7">
+        <v>1.48</v>
+      </c>
+      <c r="V7">
+        <v>1.22</v>
+      </c>
+      <c r="W7">
+        <v>1.79</v>
+      </c>
+      <c r="X7">
         <v>6.4</v>
       </c>
-      <c r="I7">
-        <v>7</v>
-      </c>
-      <c r="J7">
-        <v>4.6</v>
-      </c>
-      <c r="K7">
-        <v>4.9</v>
-      </c>
-      <c r="L7">
-        <v>1.37</v>
-      </c>
-      <c r="M7">
-        <v>1.05</v>
-      </c>
-      <c r="N7">
-        <v>4.6</v>
-      </c>
-      <c r="O7">
-        <v>1.26</v>
-      </c>
-      <c r="P7">
-        <v>2.2</v>
-      </c>
-      <c r="Q7">
-        <v>1.79</v>
-      </c>
-      <c r="R7">
-        <v>1.46</v>
-      </c>
-      <c r="S7">
-        <v>3</v>
-      </c>
-      <c r="T7">
-        <v>1.93</v>
-      </c>
-      <c r="U7">
-        <v>1.99</v>
-      </c>
-      <c r="V7">
-        <v>1.16</v>
-      </c>
-      <c r="W7">
-        <v>2.68</v>
-      </c>
-      <c r="X7">
-        <v>19</v>
-      </c>
       <c r="Y7">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="Z7">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AA7">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AB7">
-        <v>9.199999999999999</v>
+        <v>5.7</v>
       </c>
       <c r="AC7">
-        <v>10.5</v>
+        <v>8</v>
       </c>
       <c r="AD7">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AE7">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AF7">
-        <v>9.6</v>
+        <v>11.5</v>
       </c>
       <c r="AG7">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AH7">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="AI7">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AJ7">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AK7">
-        <v>15.5</v>
+        <v>75</v>
       </c>
       <c r="AL7">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM7">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN7">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AO7">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:41">
       <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
         <v>45</v>
       </c>
-      <c r="B8" t="s">
-        <v>47</v>
-      </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F8">
-        <v>2.12</v>
+        <v>2.88</v>
       </c>
       <c r="G8">
-        <v>2.18</v>
+        <v>3.05</v>
       </c>
       <c r="H8">
-        <v>4.1</v>
+        <v>2.98</v>
       </c>
       <c r="I8">
-        <v>4.4</v>
+        <v>3.15</v>
       </c>
       <c r="J8">
-        <v>3.25</v>
+        <v>2.94</v>
       </c>
       <c r="K8">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="L8">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="M8">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="N8">
-        <v>3.1</v>
+        <v>2.64</v>
       </c>
       <c r="O8">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="P8">
-        <v>1.69</v>
+        <v>1.54</v>
       </c>
       <c r="Q8">
-        <v>2.34</v>
+        <v>2.84</v>
       </c>
       <c r="R8">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
       <c r="S8">
-        <v>4.5</v>
+        <v>5.9</v>
       </c>
       <c r="T8">
-        <v>1.99</v>
+        <v>2.16</v>
       </c>
       <c r="U8">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="V8">
-        <v>1.29</v>
+        <v>1.46</v>
       </c>
       <c r="W8">
-        <v>1.86</v>
+        <v>1.48</v>
       </c>
       <c r="X8">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="Y8">
-        <v>13.5</v>
+        <v>9.6</v>
       </c>
       <c r="Z8">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="AA8">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AB8">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="AC8">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD8">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE8">
         <v>65</v>
       </c>
       <c r="AF8">
-        <v>12</v>
+        <v>19.5</v>
       </c>
       <c r="AG8">
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="AH8">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="AI8">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AJ8">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="AK8">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="AL8">
-        <v>50</v>
+        <v>960</v>
       </c>
       <c r="AM8">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="AN8">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="AO8">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:41">
-      <c r="A9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9">
-        <v>2.46</v>
-      </c>
-      <c r="G9">
-        <v>2.54</v>
-      </c>
-      <c r="H9">
-        <v>3.65</v>
-      </c>
-      <c r="I9">
-        <v>3.85</v>
-      </c>
-      <c r="J9">
-        <v>2.94</v>
-      </c>
-      <c r="K9">
-        <v>3.05</v>
-      </c>
-      <c r="L9">
-        <v>1.69</v>
-      </c>
-      <c r="M9">
-        <v>1.17</v>
-      </c>
-      <c r="N9">
-        <v>2.38</v>
-      </c>
-      <c r="O9">
-        <v>1.7</v>
-      </c>
-      <c r="P9">
-        <v>1.44</v>
-      </c>
-      <c r="Q9">
-        <v>3.15</v>
-      </c>
-      <c r="R9">
-        <v>1.15</v>
-      </c>
-      <c r="S9">
-        <v>7.2</v>
-      </c>
-      <c r="T9">
-        <v>2.36</v>
-      </c>
-      <c r="U9">
-        <v>1.67</v>
-      </c>
-      <c r="V9">
-        <v>1.35</v>
-      </c>
-      <c r="W9">
-        <v>1.64</v>
-      </c>
-      <c r="X9">
-        <v>7.2</v>
-      </c>
-      <c r="Y9">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="Z9">
-        <v>28</v>
-      </c>
-      <c r="AA9">
-        <v>1000</v>
-      </c>
-      <c r="AB9">
-        <v>6.6</v>
-      </c>
-      <c r="AC9">
-        <v>7</v>
-      </c>
-      <c r="AD9">
-        <v>22</v>
-      </c>
-      <c r="AE9">
-        <v>80</v>
-      </c>
-      <c r="AF9">
-        <v>13.5</v>
-      </c>
-      <c r="AG9">
-        <v>13.5</v>
-      </c>
-      <c r="AH9">
-        <v>30</v>
-      </c>
-      <c r="AI9">
-        <v>1000</v>
-      </c>
-      <c r="AJ9">
-        <v>40</v>
-      </c>
-      <c r="AK9">
-        <v>65</v>
-      </c>
-      <c r="AL9">
-        <v>90</v>
-      </c>
-      <c r="AM9">
-        <v>1000</v>
-      </c>
-      <c r="AN9">
-        <v>50</v>
-      </c>
-      <c r="AO9">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:41">
-      <c r="A10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10">
-        <v>2.22</v>
-      </c>
-      <c r="G10">
-        <v>2.34</v>
-      </c>
-      <c r="H10">
-        <v>4.5</v>
-      </c>
-      <c r="I10">
-        <v>5.1</v>
-      </c>
-      <c r="J10">
-        <v>2.76</v>
-      </c>
-      <c r="K10">
-        <v>2.98</v>
-      </c>
-      <c r="L10">
-        <v>1.78</v>
-      </c>
-      <c r="M10">
-        <v>1.19</v>
-      </c>
-      <c r="N10">
-        <v>2.12</v>
-      </c>
-      <c r="O10">
-        <v>1.8</v>
-      </c>
-      <c r="P10">
-        <v>1.35</v>
-      </c>
-      <c r="Q10">
-        <v>3.5</v>
-      </c>
-      <c r="R10">
-        <v>1.11</v>
-      </c>
-      <c r="S10">
-        <v>8</v>
-      </c>
-      <c r="T10">
-        <v>2.6</v>
-      </c>
-      <c r="U10">
-        <v>1.53</v>
-      </c>
-      <c r="V10">
-        <v>1.25</v>
-      </c>
-      <c r="W10">
-        <v>1.74</v>
-      </c>
-      <c r="X10">
-        <v>7</v>
-      </c>
-      <c r="Y10">
-        <v>12.5</v>
-      </c>
-      <c r="Z10">
-        <v>1000</v>
-      </c>
-      <c r="AA10">
-        <v>1000</v>
-      </c>
-      <c r="AB10">
-        <v>5.9</v>
-      </c>
-      <c r="AC10">
-        <v>7.6</v>
-      </c>
-      <c r="AD10">
-        <v>1000</v>
-      </c>
-      <c r="AE10">
-        <v>1000</v>
-      </c>
-      <c r="AF10">
-        <v>12.5</v>
-      </c>
-      <c r="AG10">
-        <v>15</v>
-      </c>
-      <c r="AH10">
-        <v>1000</v>
-      </c>
-      <c r="AI10">
-        <v>1000</v>
-      </c>
-      <c r="AJ10">
-        <v>1000</v>
-      </c>
-      <c r="AK10">
-        <v>1000</v>
-      </c>
-      <c r="AL10">
-        <v>1000</v>
-      </c>
-      <c r="AM10">
-        <v>1000</v>
-      </c>
-      <c r="AN10">
-        <v>1000</v>
-      </c>
-      <c r="AO10">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:41">
-      <c r="A11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11">
-        <v>2.78</v>
-      </c>
-      <c r="G11">
-        <v>2.9</v>
-      </c>
-      <c r="H11">
-        <v>3.15</v>
-      </c>
-      <c r="I11">
-        <v>3.3</v>
-      </c>
-      <c r="J11">
-        <v>2.9</v>
-      </c>
-      <c r="K11">
-        <v>3.05</v>
-      </c>
-      <c r="L11">
-        <v>1.66</v>
-      </c>
-      <c r="M11">
-        <v>1.15</v>
-      </c>
-      <c r="N11">
-        <v>2.52</v>
-      </c>
-      <c r="O11">
-        <v>1.6</v>
-      </c>
-      <c r="P11">
-        <v>1.48</v>
-      </c>
-      <c r="Q11">
-        <v>2.92</v>
-      </c>
-      <c r="R11">
-        <v>1.17</v>
-      </c>
-      <c r="S11">
-        <v>6.2</v>
-      </c>
-      <c r="T11">
-        <v>2.2</v>
-      </c>
-      <c r="U11">
-        <v>1.72</v>
-      </c>
-      <c r="V11">
-        <v>1.43</v>
-      </c>
-      <c r="W11">
-        <v>1.53</v>
-      </c>
-      <c r="X11">
-        <v>9</v>
-      </c>
-      <c r="Y11">
-        <v>10</v>
-      </c>
-      <c r="Z11">
-        <v>22</v>
-      </c>
-      <c r="AA11">
-        <v>1000</v>
-      </c>
-      <c r="AB11">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC11">
-        <v>8</v>
-      </c>
-      <c r="AD11">
-        <v>18</v>
-      </c>
-      <c r="AE11">
         <v>60</v>
-      </c>
-      <c r="AF11">
-        <v>18.5</v>
-      </c>
-      <c r="AG11">
-        <v>16.5</v>
-      </c>
-      <c r="AH11">
-        <v>32</v>
-      </c>
-      <c r="AI11">
-        <v>100</v>
-      </c>
-      <c r="AJ11">
-        <v>60</v>
-      </c>
-      <c r="AK11">
-        <v>55</v>
-      </c>
-      <c r="AL11">
-        <v>95</v>
-      </c>
-      <c r="AM11">
-        <v>270</v>
-      </c>
-      <c r="AN11">
-        <v>60</v>
-      </c>
-      <c r="AO11">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
